--- a/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2024.xlsx
+++ b/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2024.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="21">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">LEACY TAYLA BARBOSA C </t>
   </si>
   <si>
-    <t xml:space="preserve">Outros</t>
+    <t xml:space="preserve">Lazer</t>
   </si>
   <si>
     <t xml:space="preserve">Transferência Pix Recebida</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAQUE C/C BDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descobrir</t>
   </si>
   <si>
     <t xml:space="preserve">Saque</t>
@@ -176,23 +173,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,638 +234,638 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>-39.96</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>-35.54</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>75.5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45341</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>-1.02</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45341</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>-48.98</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="B9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B11" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45370</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45370</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45376</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>-70</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45376</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>-40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>45392</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>45392</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="B21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>45407</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="B22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>45467</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="2" t="n">
         <v>-250</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>45467</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
